--- a/Code/Results/Cases/Case_1_185/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_185/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.089222245780149</v>
+        <v>1.564914445839804</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01370082626677416</v>
+        <v>0.008319282504338332</v>
       </c>
       <c r="E2">
-        <v>0.03793053372286259</v>
+        <v>0.06000286272903566</v>
       </c>
       <c r="F2">
-        <v>2.676121092012181</v>
+        <v>4.392711194258879</v>
       </c>
       <c r="G2">
-        <v>0.0008589494340439616</v>
+        <v>0.002651238078790563</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09390585543699004</v>
+        <v>0.152571998438205</v>
       </c>
       <c r="K2">
-        <v>2.155591831821937</v>
+        <v>1.72295569776216</v>
       </c>
       <c r="L2">
-        <v>0.3087342222427765</v>
+        <v>0.386611203594029</v>
       </c>
       <c r="M2">
-        <v>0.2991510504180326</v>
+        <v>0.4095522688283282</v>
       </c>
       <c r="N2">
-        <v>2.609390717136662</v>
+        <v>4.530819572623386</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9898312949788419</v>
+        <v>1.548440089871121</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01169578463252563</v>
+        <v>0.007600696708852439</v>
       </c>
       <c r="E3">
-        <v>0.03567660243739912</v>
+        <v>0.05923413267756139</v>
       </c>
       <c r="F3">
-        <v>2.559660877456992</v>
+        <v>4.379598386480239</v>
       </c>
       <c r="G3">
-        <v>0.0008666049651986798</v>
+        <v>0.002656111474630321</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09179842660449644</v>
+        <v>0.1517105256063491</v>
       </c>
       <c r="K3">
-        <v>1.890048064955096</v>
+        <v>1.664842800434087</v>
       </c>
       <c r="L3">
-        <v>0.2756301932729883</v>
+        <v>0.3809137346762554</v>
       </c>
       <c r="M3">
-        <v>0.2699658911145661</v>
+        <v>0.4046397912732402</v>
       </c>
       <c r="N3">
-        <v>2.628910656489765</v>
+        <v>4.541032088007753</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9301880536061731</v>
+        <v>1.53907788036193</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01051111227029722</v>
+        <v>0.007156417427712114</v>
       </c>
       <c r="E4">
-        <v>0.03430866042479508</v>
+        <v>0.05875207406124883</v>
       </c>
       <c r="F4">
-        <v>2.491825727486301</v>
+        <v>4.37316651644592</v>
       </c>
       <c r="G4">
-        <v>0.0008714472194165657</v>
+        <v>0.002659263458754335</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09051098028493243</v>
+        <v>0.151166165108739</v>
       </c>
       <c r="K4">
-        <v>1.729947485404011</v>
+        <v>1.630226399633244</v>
       </c>
       <c r="L4">
-        <v>0.255750408189229</v>
+        <v>0.3776276929537943</v>
       </c>
       <c r="M4">
-        <v>0.2524462291510758</v>
+        <v>0.4018310531147371</v>
       </c>
       <c r="N4">
-        <v>2.643026212097993</v>
+        <v>4.548183155748617</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9062043682407079</v>
+        <v>1.53545235972453</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01003834014323957</v>
+        <v>0.006974559918219825</v>
       </c>
       <c r="E5">
-        <v>0.03375418822103615</v>
+        <v>0.05855307515452868</v>
       </c>
       <c r="F5">
-        <v>2.465047092816221</v>
+        <v>4.370952632885732</v>
       </c>
       <c r="G5">
-        <v>0.0008734572402703713</v>
+        <v>0.002660588206757994</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08998715727230966</v>
+        <v>0.1509404316411427</v>
       </c>
       <c r="K5">
-        <v>1.665365829060306</v>
+        <v>1.61638739109398</v>
       </c>
       <c r="L5">
-        <v>0.2477510672500216</v>
+        <v>0.3763419686890188</v>
       </c>
       <c r="M5">
-        <v>0.245399161714225</v>
+        <v>0.400738706646635</v>
       </c>
       <c r="N5">
-        <v>2.649293528723078</v>
+        <v>4.551318616924391</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9022405705701999</v>
+        <v>1.534861807875018</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009960393707956428</v>
+        <v>0.006944312541495634</v>
       </c>
       <c r="E6">
-        <v>0.03366226940974926</v>
+        <v>0.05851987634971856</v>
       </c>
       <c r="F6">
-        <v>2.460651114146515</v>
+        <v>4.370609608688625</v>
       </c>
       <c r="G6">
-        <v>0.0008737932547735472</v>
+        <v>0.002660810617293914</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08990020387230757</v>
+        <v>0.150902712317599</v>
       </c>
       <c r="K6">
-        <v>1.654679771043646</v>
+        <v>1.614105577004125</v>
       </c>
       <c r="L6">
-        <v>0.2464286441271923</v>
+        <v>0.3761316982355822</v>
       </c>
       <c r="M6">
-        <v>0.2442343472127781</v>
+        <v>0.4005604798176847</v>
       </c>
       <c r="N6">
-        <v>2.650364750410915</v>
+        <v>4.551852624280343</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9298633334127828</v>
+        <v>1.539028217042556</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01050469796359721</v>
+        <v>0.007153968165241054</v>
       </c>
       <c r="E7">
-        <v>0.0343011718865327</v>
+        <v>0.05874940067770495</v>
       </c>
       <c r="F7">
-        <v>2.491461154585124</v>
+        <v>4.373135010786811</v>
       </c>
       <c r="G7">
-        <v>0.0008714741769758644</v>
+        <v>0.00265928116152225</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09050391352883658</v>
+        <v>0.1511631366218911</v>
       </c>
       <c r="K7">
-        <v>1.729073941001133</v>
+        <v>1.630038679511728</v>
       </c>
       <c r="L7">
-        <v>0.2556421271287661</v>
+        <v>0.377610137157987</v>
       </c>
       <c r="M7">
-        <v>0.2523508265944727</v>
+        <v>0.4018161097771475</v>
       </c>
       <c r="N7">
-        <v>2.643108675728072</v>
+        <v>4.5482245455906</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.054648675551647</v>
+        <v>1.559077936913098</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01299878939537535</v>
+        <v>0.008072126207562036</v>
       </c>
       <c r="E8">
-        <v>0.03714940433093616</v>
+        <v>0.05973987476740739</v>
       </c>
       <c r="F8">
-        <v>2.635166892276857</v>
+        <v>4.387853726001993</v>
       </c>
       <c r="G8">
-        <v>0.000861560346106633</v>
+        <v>0.002652885359051949</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09317734454191751</v>
+        <v>0.1522781454050364</v>
       </c>
       <c r="K8">
-        <v>2.063371335585913</v>
+        <v>1.702697040098599</v>
       </c>
       <c r="L8">
-        <v>0.2972208474128024</v>
+        <v>0.38460266399386</v>
       </c>
       <c r="M8">
-        <v>0.2889997807945761</v>
+        <v>0.4078153972466652</v>
       </c>
       <c r="N8">
-        <v>2.615666222063908</v>
+        <v>4.53415804264985</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.311627798617735</v>
+        <v>1.604362790230624</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01834271219997063</v>
+        <v>0.009850166011588612</v>
       </c>
       <c r="E9">
-        <v>0.04291391619740104</v>
+        <v>0.06160371216576976</v>
       </c>
       <c r="F9">
-        <v>2.94899410899032</v>
+        <v>4.42957584661994</v>
       </c>
       <c r="G9">
-        <v>0.0008431889078464324</v>
+        <v>0.002641604375645915</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09851276412109833</v>
+        <v>0.1543436303248544</v>
       </c>
       <c r="K9">
-        <v>2.74623330835928</v>
+        <v>1.85365902508093</v>
       </c>
       <c r="L9">
-        <v>0.3828103855788925</v>
+        <v>0.4000003457611001</v>
       </c>
       <c r="M9">
-        <v>0.3644518988832104</v>
+        <v>0.4212257951245846</v>
       </c>
       <c r="N9">
-        <v>2.579762796479898</v>
+        <v>4.513564916995463</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.509904067220532</v>
+        <v>1.641266535248263</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02267791872814584</v>
+        <v>0.01114546359183066</v>
       </c>
       <c r="E10">
-        <v>0.04734033624652589</v>
+        <v>0.06292712044968418</v>
       </c>
       <c r="F10">
-        <v>3.203508159493197</v>
+        <v>4.46808973606619</v>
       </c>
       <c r="G10">
-        <v>0.0008302598050850002</v>
+        <v>0.002634076705403627</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1025536602916297</v>
+        <v>0.1557891565254153</v>
       </c>
       <c r="K10">
-        <v>3.270646819251056</v>
+        <v>1.969793011781917</v>
       </c>
       <c r="L10">
-        <v>0.448954527811452</v>
+        <v>0.4123443900731303</v>
       </c>
       <c r="M10">
-        <v>0.4226982116049953</v>
+        <v>0.4320822499454451</v>
       </c>
       <c r="N10">
-        <v>2.565846197713057</v>
+        <v>4.502705069640044</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.602656698472515</v>
+        <v>1.658843307082861</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02477341209120709</v>
+        <v>0.0117329195806164</v>
       </c>
       <c r="E11">
-        <v>0.04941675425433267</v>
+        <v>0.06351960861490191</v>
       </c>
       <c r="F11">
-        <v>3.325600266365683</v>
+        <v>4.487322977250216</v>
       </c>
       <c r="G11">
-        <v>0.0008244807706369061</v>
+        <v>0.002630815517098477</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1044348635803551</v>
+        <v>0.1564315266177161</v>
       </c>
       <c r="K11">
-        <v>3.515671252811501</v>
+        <v>2.023771863950856</v>
       </c>
       <c r="L11">
-        <v>0.4799518529217579</v>
+        <v>0.4181849711717831</v>
       </c>
       <c r="M11">
-        <v>0.4499629343693243</v>
+        <v>0.4372393576488278</v>
       </c>
       <c r="N11">
-        <v>2.562608363903124</v>
+        <v>4.498693720684841</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.638192968195483</v>
+        <v>1.665612481122764</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02558800310298892</v>
+        <v>0.01195516382917106</v>
       </c>
       <c r="E12">
-        <v>0.05021411580081114</v>
+        <v>0.06374262885520388</v>
       </c>
       <c r="F12">
-        <v>3.372844746289871</v>
+        <v>4.494852740992656</v>
       </c>
       <c r="G12">
-        <v>0.0008223052296440547</v>
+        <v>0.002629603920526305</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1051550075123764</v>
+        <v>0.1566726186927028</v>
       </c>
       <c r="K12">
-        <v>3.609527904886988</v>
+        <v>2.044378196132357</v>
       </c>
       <c r="L12">
-        <v>0.4918388800596745</v>
+        <v>0.4204290799491588</v>
       </c>
       <c r="M12">
-        <v>0.4604123820463784</v>
+        <v>0.4392236214589715</v>
       </c>
       <c r="N12">
-        <v>2.561863597699769</v>
+        <v>4.497308443719589</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.630520461742321</v>
+        <v>1.664149586047813</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02541157126250937</v>
+        <v>0.01190730830985132</v>
       </c>
       <c r="E13">
-        <v>0.05004186222027052</v>
+        <v>0.06369465668190166</v>
       </c>
       <c r="F13">
-        <v>3.362623080434844</v>
+        <v>4.493220102610138</v>
       </c>
       <c r="G13">
-        <v>0.0008227732316572297</v>
+        <v>0.002629863823219682</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1049995382884923</v>
+        <v>0.1566207908122976</v>
       </c>
       <c r="K13">
-        <v>3.58926413133446</v>
+        <v>2.039932875599391</v>
       </c>
       <c r="L13">
-        <v>0.4892718528388542</v>
+        <v>0.4199443292641405</v>
       </c>
       <c r="M13">
-        <v>0.4581561057062089</v>
+        <v>0.4387948796765215</v>
       </c>
       <c r="N13">
-        <v>2.562001963010175</v>
+        <v>4.497600837339363</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.605571737832946</v>
+        <v>1.659397943097957</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02483998597091386</v>
+        <v>0.0117512077582802</v>
       </c>
       <c r="E14">
-        <v>0.04948211925428758</v>
+        <v>0.06353798335506156</v>
       </c>
       <c r="F14">
-        <v>3.329466208105174</v>
+        <v>4.487937512895797</v>
       </c>
       <c r="G14">
-        <v>0.0008243015413256817</v>
+        <v>0.002630715371053015</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1044939445952018</v>
+        <v>0.1564514045319285</v>
       </c>
       <c r="K14">
-        <v>3.523370560973547</v>
+        <v>2.025463835269022</v>
       </c>
       <c r="L14">
-        <v>0.4809267063639027</v>
+        <v>0.4183689457227615</v>
       </c>
       <c r="M14">
-        <v>0.4508200256081025</v>
+        <v>0.4374019755327936</v>
       </c>
       <c r="N14">
-        <v>2.562537220950531</v>
+        <v>4.498577071920067</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.590345116889921</v>
+        <v>1.656502163837928</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0244927242803854</v>
+        <v>0.011655565280698</v>
       </c>
       <c r="E15">
-        <v>0.04914076673928314</v>
+        <v>0.06344184250000495</v>
       </c>
       <c r="F15">
-        <v>3.309291562189486</v>
+        <v>4.484733889151101</v>
       </c>
       <c r="G15">
-        <v>0.0008252392899677972</v>
+        <v>0.002631240005613769</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1041853169979383</v>
+        <v>0.1563473701193843</v>
       </c>
       <c r="K15">
-        <v>3.483152815794597</v>
+        <v>2.016622725980085</v>
       </c>
       <c r="L15">
-        <v>0.4758350514670866</v>
+        <v>0.4174081989195173</v>
       </c>
       <c r="M15">
-        <v>0.4463431833973104</v>
+        <v>0.4365528670222929</v>
       </c>
       <c r="N15">
-        <v>2.562928920012894</v>
+        <v>4.499192464904155</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.503897664271165</v>
+        <v>1.640133709763603</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02254373090647377</v>
+        <v>0.01110703982990913</v>
       </c>
       <c r="E16">
-        <v>0.04720606939169336</v>
+        <v>0.0628882105411126</v>
       </c>
       <c r="F16">
-        <v>3.195664739076136</v>
+        <v>4.466867288088537</v>
       </c>
       <c r="G16">
-        <v>0.000830639384187815</v>
+        <v>0.00263429310480539</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1024317155572696</v>
+        <v>0.1557468724480664</v>
       </c>
       <c r="K16">
-        <v>3.254775746611813</v>
+        <v>1.966288528386258</v>
       </c>
       <c r="L16">
-        <v>0.4469485818528085</v>
+        <v>0.4119672280644835</v>
       </c>
       <c r="M16">
-        <v>0.4209330542980325</v>
+        <v>0.4317496136872165</v>
       </c>
       <c r="N16">
-        <v>2.566123071113395</v>
+        <v>4.5029859256598</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.451550373545871</v>
+        <v>1.630294124441349</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02138192312715148</v>
+        <v>0.01077011182884036</v>
       </c>
       <c r="E17">
-        <v>0.04603665017223335</v>
+        <v>0.06254615336116487</v>
       </c>
       <c r="F17">
-        <v>3.127645065760163</v>
+        <v>4.456345616370925</v>
       </c>
       <c r="G17">
-        <v>0.0008339771345868896</v>
+        <v>0.002636207791665851</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1013680154774939</v>
+        <v>0.1553746110113234</v>
       </c>
       <c r="K17">
-        <v>3.116425751530983</v>
+        <v>1.935704744953227</v>
       </c>
       <c r="L17">
-        <v>0.4294727289674398</v>
+        <v>0.4086870661925417</v>
       </c>
       <c r="M17">
-        <v>0.4055513067433054</v>
+        <v>0.428858899323231</v>
       </c>
       <c r="N17">
-        <v>2.568899537475403</v>
+        <v>4.505551108364145</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.421679181525093</v>
+        <v>1.62470894027706</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02072507201955531</v>
+        <v>0.01057614944686591</v>
       </c>
       <c r="E18">
-        <v>0.04536980743511343</v>
+        <v>0.06234851169863909</v>
       </c>
       <c r="F18">
-        <v>3.089109304160587</v>
+        <v>4.450455058793125</v>
       </c>
       <c r="G18">
-        <v>0.0008359066896115268</v>
+        <v>0.00263732443600602</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1007601419536108</v>
+        <v>0.155159063085673</v>
       </c>
       <c r="K18">
-        <v>3.037449780657596</v>
+        <v>1.918221872646086</v>
       </c>
       <c r="L18">
-        <v>0.4195053306377048</v>
+        <v>0.4068216005361904</v>
       </c>
       <c r="M18">
-        <v>0.396775488515317</v>
+        <v>0.4272168005420127</v>
       </c>
       <c r="N18">
-        <v>2.57078519276692</v>
+        <v>4.507113951129099</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.411604807444064</v>
+        <v>1.622830658683625</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02050453531592211</v>
+        <v>0.01051044654650113</v>
       </c>
       <c r="E19">
-        <v>0.0451449602711893</v>
+        <v>0.06228143826493948</v>
       </c>
       <c r="F19">
-        <v>3.076159672118223</v>
+        <v>4.4484883022171</v>
       </c>
       <c r="G19">
-        <v>0.0008365617359185062</v>
+        <v>0.002637705155408952</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1005549576648086</v>
+        <v>0.155085835317065</v>
       </c>
       <c r="K19">
-        <v>3.010808742430982</v>
+        <v>1.912321025663687</v>
       </c>
       <c r="L19">
-        <v>0.4161444815104147</v>
+        <v>0.4061936258348595</v>
       </c>
       <c r="M19">
-        <v>0.3938159876193694</v>
+        <v>0.4266643470043405</v>
       </c>
       <c r="N19">
-        <v>2.571472178156839</v>
+        <v>4.507658111881184</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.457097929089144</v>
+        <v>1.631333878612509</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02150439799331494</v>
+        <v>0.01080599570085639</v>
       </c>
       <c r="E20">
-        <v>0.0461605251249928</v>
+        <v>0.06258265880614644</v>
       </c>
       <c r="F20">
-        <v>3.134824375195478</v>
+        <v>4.457448978167093</v>
       </c>
       <c r="G20">
-        <v>0.0008336208273901358</v>
+        <v>0.002636002380421015</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1014808296514751</v>
+        <v>0.1554143869881717</v>
       </c>
       <c r="K20">
-        <v>3.131090345648829</v>
+        <v>1.938949248273218</v>
       </c>
       <c r="L20">
-        <v>0.4313242166334987</v>
+        <v>0.4090340510968673</v>
       </c>
       <c r="M20">
-        <v>0.407181235269988</v>
+        <v>0.4291644927968292</v>
       </c>
       <c r="N20">
-        <v>2.568573845681016</v>
+        <v>4.505268991769086</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.61288819299827</v>
+        <v>1.660790544581062</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02500727373489298</v>
+        <v>0.01179706369340749</v>
       </c>
       <c r="E21">
-        <v>0.0496462114213152</v>
+        <v>0.06358403830108728</v>
       </c>
       <c r="F21">
-        <v>3.339176872828233</v>
+        <v>4.489482444412573</v>
       </c>
       <c r="G21">
-        <v>0.0008238523068753796</v>
+        <v>0.002630464618432007</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1046422250165051</v>
+        <v>0.1565012157804091</v>
       </c>
       <c r="K21">
-        <v>3.542694821833436</v>
+        <v>2.029709241714102</v>
       </c>
       <c r="L21">
-        <v>0.4833736767676555</v>
+        <v>0.4188307943401526</v>
       </c>
       <c r="M21">
-        <v>0.4529712980467764</v>
+        <v>0.43781025388882</v>
       </c>
       <c r="N21">
-        <v>2.562366627826833</v>
+        <v>4.49828669730816</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.717137168675777</v>
+        <v>1.680702075967815</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02742131823117688</v>
+        <v>0.01244356539174873</v>
       </c>
       <c r="E22">
-        <v>0.05198996295874103</v>
+        <v>0.06423068822669364</v>
       </c>
       <c r="F22">
-        <v>3.478681356520923</v>
+        <v>4.511855371969517</v>
       </c>
       <c r="G22">
-        <v>0.0008175419170244057</v>
+        <v>0.002626981383061884</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1067545847146469</v>
+        <v>0.1571989465171981</v>
       </c>
       <c r="K22">
-        <v>3.8180234352958</v>
+        <v>2.089992284371533</v>
       </c>
       <c r="L22">
-        <v>0.5182696691810804</v>
+        <v>0.4254224398420519</v>
       </c>
       <c r="M22">
-        <v>0.4836335482702339</v>
+        <v>0.4436436451028882</v>
       </c>
       <c r="N22">
-        <v>2.56113542393399</v>
+        <v>4.494502948346536</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.661258842632577</v>
+        <v>1.67001461273145</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02612026503680909</v>
+        <v>0.0120986122369473</v>
       </c>
       <c r="E23">
-        <v>0.05073230669670004</v>
+        <v>0.06388626384191021</v>
       </c>
       <c r="F23">
-        <v>3.403643806685238</v>
+        <v>4.499782941312986</v>
       </c>
       <c r="G23">
-        <v>0.0008209038032792117</v>
+        <v>0.002628828046181442</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1056223677992421</v>
+        <v>0.1568276960486763</v>
       </c>
       <c r="K23">
-        <v>3.670446017821007</v>
+        <v>2.057729519423049</v>
       </c>
       <c r="L23">
-        <v>0.4995579771518379</v>
+        <v>0.4218870616362977</v>
       </c>
       <c r="M23">
-        <v>0.4671960218783084</v>
+        <v>0.4405135310935648</v>
       </c>
       <c r="N23">
-        <v>2.561520827338413</v>
+        <v>4.496451018010532</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.454589185003186</v>
+        <v>1.630863582320444</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02144899281663015</v>
+        <v>0.01078977340972642</v>
       </c>
       <c r="E24">
-        <v>0.0461045043651751</v>
+        <v>0.06256615777616759</v>
       </c>
       <c r="F24">
-        <v>3.131576842708341</v>
+        <v>4.456949654621127</v>
       </c>
       <c r="G24">
-        <v>0.0008337818805489655</v>
+        <v>0.002636095197315075</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1014298150751838</v>
+        <v>0.1553964090373903</v>
       </c>
       <c r="K24">
-        <v>3.124458738632939</v>
+        <v>1.937482096401482</v>
       </c>
       <c r="L24">
-        <v>0.4304869121727108</v>
+        <v>0.4088771158571376</v>
       </c>
       <c r="M24">
-        <v>0.4064441358635165</v>
+        <v>0.4290262722750313</v>
       </c>
       <c r="N24">
-        <v>2.568720192154117</v>
+        <v>4.505396262302298</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.24059931876269</v>
+        <v>1.591473714900786</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0168357790091207</v>
+        <v>0.00937129021493277</v>
       </c>
       <c r="E25">
-        <v>0.04132739057442869</v>
+        <v>0.0611077019046764</v>
       </c>
       <c r="F25">
-        <v>2.860236166337643</v>
+        <v>4.416910097319615</v>
       </c>
       <c r="G25">
-        <v>0.000848052563632169</v>
+        <v>0.002644522032556852</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0970532563733979</v>
+        <v>0.1537976342835314</v>
       </c>
       <c r="K25">
-        <v>2.557986644456776</v>
+        <v>1.811906617872239</v>
       </c>
       <c r="L25">
-        <v>0.3591452102461545</v>
+        <v>0.3956540380251994</v>
       </c>
       <c r="M25">
-        <v>0.3435952384613827</v>
+        <v>0.4174216858865947</v>
       </c>
       <c r="N25">
-        <v>2.58740798668542</v>
+        <v>4.518386648135746</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_185/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_185/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.564914445839804</v>
+        <v>1.089222245780149</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.008319282504338332</v>
+        <v>0.01370082626689495</v>
       </c>
       <c r="E2">
-        <v>0.06000286272903566</v>
+        <v>0.03793053372285193</v>
       </c>
       <c r="F2">
-        <v>4.392711194258879</v>
+        <v>2.676121092012195</v>
       </c>
       <c r="G2">
-        <v>0.002651238078790563</v>
+        <v>0.0008589494340511852</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.152571998438205</v>
+        <v>0.09390585543694741</v>
       </c>
       <c r="K2">
-        <v>1.72295569776216</v>
+        <v>2.155591831821994</v>
       </c>
       <c r="L2">
-        <v>0.386611203594029</v>
+        <v>0.3087342222428049</v>
       </c>
       <c r="M2">
-        <v>0.4095522688283282</v>
+        <v>0.2991510504180468</v>
       </c>
       <c r="N2">
-        <v>4.530819572623386</v>
+        <v>2.609390717136606</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.548440089871121</v>
+        <v>0.9898312949787282</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.007600696708852439</v>
+        <v>0.01169578463263221</v>
       </c>
       <c r="E3">
-        <v>0.05923413267756139</v>
+        <v>0.03567660243739823</v>
       </c>
       <c r="F3">
-        <v>4.379598386480239</v>
+        <v>2.559660877456977</v>
       </c>
       <c r="G3">
-        <v>0.002656111474630321</v>
+        <v>0.000866604965198669</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1517105256063491</v>
+        <v>0.09179842660451243</v>
       </c>
       <c r="K3">
-        <v>1.664842800434087</v>
+        <v>1.890048064955153</v>
       </c>
       <c r="L3">
-        <v>0.3809137346762554</v>
+        <v>0.2756301932730025</v>
       </c>
       <c r="M3">
-        <v>0.4046397912732402</v>
+        <v>0.2699658911145768</v>
       </c>
       <c r="N3">
-        <v>4.541032088007753</v>
+        <v>2.628910656489822</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.53907788036193</v>
+        <v>0.9301880536061446</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.007156417427712114</v>
+        <v>0.01051111227039669</v>
       </c>
       <c r="E4">
-        <v>0.05875207406124883</v>
+        <v>0.03430866042477909</v>
       </c>
       <c r="F4">
-        <v>4.37316651644592</v>
+        <v>2.491825727486301</v>
       </c>
       <c r="G4">
-        <v>0.002659263458754335</v>
+        <v>0.0008714472194159462</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.151166165108739</v>
+        <v>0.09051098028494131</v>
       </c>
       <c r="K4">
-        <v>1.630226399633244</v>
+        <v>1.729947485404011</v>
       </c>
       <c r="L4">
-        <v>0.3776276929537943</v>
+        <v>0.2557504081890727</v>
       </c>
       <c r="M4">
-        <v>0.4018310531147371</v>
+        <v>0.2524462291510687</v>
       </c>
       <c r="N4">
-        <v>4.548183155748617</v>
+        <v>2.643026212098064</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.53545235972453</v>
+        <v>0.9062043682405942</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006974559918219825</v>
+        <v>0.01003834014326088</v>
       </c>
       <c r="E5">
-        <v>0.05855307515452868</v>
+        <v>0.03375418822103526</v>
       </c>
       <c r="F5">
-        <v>4.370952632885732</v>
+        <v>2.465047092816221</v>
       </c>
       <c r="G5">
-        <v>0.002660588206757994</v>
+        <v>0.0008734572403474568</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1509404316411427</v>
+        <v>0.08998715727230255</v>
       </c>
       <c r="K5">
-        <v>1.61638739109398</v>
+        <v>1.665365829060249</v>
       </c>
       <c r="L5">
-        <v>0.3763419686890188</v>
+        <v>0.24775106725005</v>
       </c>
       <c r="M5">
-        <v>0.400738706646635</v>
+        <v>0.2453991617142322</v>
       </c>
       <c r="N5">
-        <v>4.551318616924391</v>
+        <v>2.649293528723078</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.534861807875018</v>
+        <v>0.9022405705703704</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006944312541495634</v>
+        <v>0.00996039370782853</v>
       </c>
       <c r="E6">
-        <v>0.05851987634971856</v>
+        <v>0.0336622694097457</v>
       </c>
       <c r="F6">
-        <v>4.370609608688625</v>
+        <v>2.460651114146543</v>
       </c>
       <c r="G6">
-        <v>0.002660810617293914</v>
+        <v>0.0008737932547421898</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.150902712317599</v>
+        <v>0.08990020387229336</v>
       </c>
       <c r="K6">
-        <v>1.614105577004125</v>
+        <v>1.654679771043618</v>
       </c>
       <c r="L6">
-        <v>0.3761316982355822</v>
+        <v>0.246428644127235</v>
       </c>
       <c r="M6">
-        <v>0.4005604798176847</v>
+        <v>0.2442343472127817</v>
       </c>
       <c r="N6">
-        <v>4.551852624280343</v>
+        <v>2.650364750410901</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.539028217042556</v>
+        <v>0.9298633334126976</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007153968165241054</v>
+        <v>0.01050469796361497</v>
       </c>
       <c r="E7">
-        <v>0.05874940067770495</v>
+        <v>0.03430117188652915</v>
       </c>
       <c r="F7">
-        <v>4.373135010786811</v>
+        <v>2.491461154585124</v>
       </c>
       <c r="G7">
-        <v>0.00265928116152225</v>
+        <v>0.0008714741769738426</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1511631366218911</v>
+        <v>0.09050391352897513</v>
       </c>
       <c r="K7">
-        <v>1.630038679511728</v>
+        <v>1.729073941001189</v>
       </c>
       <c r="L7">
-        <v>0.377610137157987</v>
+        <v>0.2556421271287235</v>
       </c>
       <c r="M7">
-        <v>0.4018161097771475</v>
+        <v>0.2523508265944727</v>
       </c>
       <c r="N7">
-        <v>4.5482245455906</v>
+        <v>2.643108675728129</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.559077936913098</v>
+        <v>1.05464867555159</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008072126207562036</v>
+        <v>0.01299878939559562</v>
       </c>
       <c r="E8">
-        <v>0.05973987476740739</v>
+        <v>0.03714940433093261</v>
       </c>
       <c r="F8">
-        <v>4.387853726001993</v>
+        <v>2.635166892276885</v>
       </c>
       <c r="G8">
-        <v>0.002652885359051949</v>
+        <v>0.0008615603460538443</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1522781454050364</v>
+        <v>0.09317734454186422</v>
       </c>
       <c r="K8">
-        <v>1.702697040098599</v>
+        <v>2.063371335585828</v>
       </c>
       <c r="L8">
-        <v>0.38460266399386</v>
+        <v>0.2972208474128024</v>
       </c>
       <c r="M8">
-        <v>0.4078153972466652</v>
+        <v>0.2889997807945761</v>
       </c>
       <c r="N8">
-        <v>4.53415804264985</v>
+        <v>2.61566622206395</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.604362790230624</v>
+        <v>1.311627798617707</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009850166011588612</v>
+        <v>0.01834271219997063</v>
       </c>
       <c r="E9">
-        <v>0.06160371216576976</v>
+        <v>0.04291391619742946</v>
       </c>
       <c r="F9">
-        <v>4.42957584661994</v>
+        <v>2.94899410899032</v>
       </c>
       <c r="G9">
-        <v>0.002641604375645915</v>
+        <v>0.0008431889078464502</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1543436303248544</v>
+        <v>0.09851276412109122</v>
       </c>
       <c r="K9">
-        <v>1.85365902508093</v>
+        <v>2.746233308359223</v>
       </c>
       <c r="L9">
-        <v>0.4000003457611001</v>
+        <v>0.3828103855788925</v>
       </c>
       <c r="M9">
-        <v>0.4212257951245846</v>
+        <v>0.3644518988832175</v>
       </c>
       <c r="N9">
-        <v>4.513564916995463</v>
+        <v>2.579762796479898</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.641266535248263</v>
+        <v>1.509904067220589</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01114546359183066</v>
+        <v>0.02267791872790426</v>
       </c>
       <c r="E10">
-        <v>0.06292712044968418</v>
+        <v>0.04734033624653122</v>
       </c>
       <c r="F10">
-        <v>4.46808973606619</v>
+        <v>3.203508159493197</v>
       </c>
       <c r="G10">
-        <v>0.002634076705403627</v>
+        <v>0.0008302598050223803</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1557891565254153</v>
+        <v>0.1025536602916937</v>
       </c>
       <c r="K10">
-        <v>1.969793011781917</v>
+        <v>3.270646819251056</v>
       </c>
       <c r="L10">
-        <v>0.4123443900731303</v>
+        <v>0.4489545278115088</v>
       </c>
       <c r="M10">
-        <v>0.4320822499454451</v>
+        <v>0.4226982116049882</v>
       </c>
       <c r="N10">
-        <v>4.502705069640044</v>
+        <v>2.565846197713029</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.658843307082861</v>
+        <v>1.60265669847243</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0117329195806164</v>
+        <v>0.02477341209120709</v>
       </c>
       <c r="E11">
-        <v>0.06351960861490191</v>
+        <v>0.04941675425433623</v>
       </c>
       <c r="F11">
-        <v>4.487322977250216</v>
+        <v>3.325600266365683</v>
       </c>
       <c r="G11">
-        <v>0.002630815517098477</v>
+        <v>0.0008244807705797175</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1564315266177161</v>
+        <v>0.1044348635803871</v>
       </c>
       <c r="K11">
-        <v>2.023771863950856</v>
+        <v>3.515671252811558</v>
       </c>
       <c r="L11">
-        <v>0.4181849711717831</v>
+        <v>0.4799518529217721</v>
       </c>
       <c r="M11">
-        <v>0.4372393576488278</v>
+        <v>0.4499629343693172</v>
       </c>
       <c r="N11">
-        <v>4.498693720684841</v>
+        <v>2.562608363903138</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.665612481122764</v>
+        <v>1.638192968195511</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01195516382917106</v>
+        <v>0.02558800310321629</v>
       </c>
       <c r="E12">
-        <v>0.06374262885520388</v>
+        <v>0.05021411580080404</v>
       </c>
       <c r="F12">
-        <v>4.494852740992656</v>
+        <v>3.372844746289871</v>
       </c>
       <c r="G12">
-        <v>0.002629603920526305</v>
+        <v>0.00082230522958213</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1566726186927028</v>
+        <v>0.1051550075124155</v>
       </c>
       <c r="K12">
-        <v>2.044378196132357</v>
+        <v>3.609527904887102</v>
       </c>
       <c r="L12">
-        <v>0.4204290799491588</v>
+        <v>0.491838880059646</v>
       </c>
       <c r="M12">
-        <v>0.4392236214589715</v>
+        <v>0.4604123820463855</v>
       </c>
       <c r="N12">
-        <v>4.497308443719589</v>
+        <v>2.561863597699713</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.664149586047813</v>
+        <v>1.630520461742321</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01190730830985132</v>
+        <v>0.02541157126250937</v>
       </c>
       <c r="E13">
-        <v>0.06369465668190166</v>
+        <v>0.05004186222026341</v>
       </c>
       <c r="F13">
-        <v>4.493220102610138</v>
+        <v>3.362623080434844</v>
       </c>
       <c r="G13">
-        <v>0.002629863823219682</v>
+        <v>0.0008227732316503644</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1566207908122976</v>
+        <v>0.1049995382884745</v>
       </c>
       <c r="K13">
-        <v>2.039932875599391</v>
+        <v>3.589264131334573</v>
       </c>
       <c r="L13">
-        <v>0.4199443292641405</v>
+        <v>0.48927185283884</v>
       </c>
       <c r="M13">
-        <v>0.4387948796765215</v>
+        <v>0.4581561057062089</v>
       </c>
       <c r="N13">
-        <v>4.497600837339363</v>
+        <v>2.562001963010175</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.659397943097957</v>
+        <v>1.605571737832918</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0117512077582802</v>
+        <v>0.02483998597091386</v>
       </c>
       <c r="E14">
-        <v>0.06353798335506156</v>
+        <v>0.04948211925428936</v>
       </c>
       <c r="F14">
-        <v>4.487937512895797</v>
+        <v>3.329466208105174</v>
       </c>
       <c r="G14">
-        <v>0.002630715371053015</v>
+        <v>0.0008243015412677281</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1564514045319285</v>
+        <v>0.1044939445952018</v>
       </c>
       <c r="K14">
-        <v>2.025463835269022</v>
+        <v>3.523370560973603</v>
       </c>
       <c r="L14">
-        <v>0.4183689457227615</v>
+        <v>0.4809267063639169</v>
       </c>
       <c r="M14">
-        <v>0.4374019755327936</v>
+        <v>0.4508200256081025</v>
       </c>
       <c r="N14">
-        <v>4.498577071920067</v>
+        <v>2.562537220950546</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.656502163837928</v>
+        <v>1.590345116889921</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.011655565280698</v>
+        <v>0.02449272428037119</v>
       </c>
       <c r="E15">
-        <v>0.06344184250000495</v>
+        <v>0.04914076673931689</v>
       </c>
       <c r="F15">
-        <v>4.484733889151101</v>
+        <v>3.309291562189486</v>
       </c>
       <c r="G15">
-        <v>0.002631240005613769</v>
+        <v>0.0008252392899669105</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1563473701193843</v>
+        <v>0.1041853169979419</v>
       </c>
       <c r="K15">
-        <v>2.016622725980085</v>
+        <v>3.483152815794597</v>
       </c>
       <c r="L15">
-        <v>0.4174081989195173</v>
+        <v>0.4758350514670866</v>
       </c>
       <c r="M15">
-        <v>0.4365528670222929</v>
+        <v>0.4463431833973246</v>
       </c>
       <c r="N15">
-        <v>4.499192464904155</v>
+        <v>2.562928920012865</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.640133709763603</v>
+        <v>1.50389766427125</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01110703982990913</v>
+        <v>0.02254373090647377</v>
       </c>
       <c r="E16">
-        <v>0.0628882105411126</v>
+        <v>0.04720606939169691</v>
       </c>
       <c r="F16">
-        <v>4.466867288088537</v>
+        <v>3.195664739076136</v>
       </c>
       <c r="G16">
-        <v>0.00263429310480539</v>
+        <v>0.0008306393841261968</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1557468724480664</v>
+        <v>0.102431715557227</v>
       </c>
       <c r="K16">
-        <v>1.966288528386258</v>
+        <v>3.254775746611813</v>
       </c>
       <c r="L16">
-        <v>0.4119672280644835</v>
+        <v>0.4469485818527517</v>
       </c>
       <c r="M16">
-        <v>0.4317496136872165</v>
+        <v>0.4209330542980325</v>
       </c>
       <c r="N16">
-        <v>4.5029859256598</v>
+        <v>2.566123071113438</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.630294124441349</v>
+        <v>1.451550373545842</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01077011182884036</v>
+        <v>0.02138192312703779</v>
       </c>
       <c r="E17">
-        <v>0.06254615336116487</v>
+        <v>0.04603665017220315</v>
       </c>
       <c r="F17">
-        <v>4.456345616370925</v>
+        <v>3.127645065760134</v>
       </c>
       <c r="G17">
-        <v>0.002636207791665851</v>
+        <v>0.0008339771345881108</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1553746110113234</v>
+        <v>0.1013680154775631</v>
       </c>
       <c r="K17">
-        <v>1.935704744953227</v>
+        <v>3.11642575153104</v>
       </c>
       <c r="L17">
-        <v>0.4086870661925417</v>
+        <v>0.4294727289673972</v>
       </c>
       <c r="M17">
-        <v>0.428858899323231</v>
+        <v>0.4055513067433125</v>
       </c>
       <c r="N17">
-        <v>4.505551108364145</v>
+        <v>2.568899537475346</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.62470894027706</v>
+        <v>1.42167918152515</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01057614944686591</v>
+        <v>0.02072507201944163</v>
       </c>
       <c r="E18">
-        <v>0.06234851169863909</v>
+        <v>0.04536980743511165</v>
       </c>
       <c r="F18">
-        <v>4.450455058793125</v>
+        <v>3.089109304160587</v>
       </c>
       <c r="G18">
-        <v>0.00263732443600602</v>
+        <v>0.0008359066896119768</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.155159063085673</v>
+        <v>0.1007601419535469</v>
       </c>
       <c r="K18">
-        <v>1.918221872646086</v>
+        <v>3.037449780657539</v>
       </c>
       <c r="L18">
-        <v>0.4068216005361904</v>
+        <v>0.4195053306378327</v>
       </c>
       <c r="M18">
-        <v>0.4272168005420127</v>
+        <v>0.3967754885153099</v>
       </c>
       <c r="N18">
-        <v>4.507113951129099</v>
+        <v>2.57078519276692</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.622830658683625</v>
+        <v>1.411604807444149</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01051044654650113</v>
+        <v>0.0205045353159079</v>
       </c>
       <c r="E19">
-        <v>0.06228143826493948</v>
+        <v>0.04514496027130654</v>
       </c>
       <c r="F19">
-        <v>4.4484883022171</v>
+        <v>3.076159672118195</v>
       </c>
       <c r="G19">
-        <v>0.002637705155408952</v>
+        <v>0.000836561735976904</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.155085835317065</v>
+        <v>0.100554957664853</v>
       </c>
       <c r="K19">
-        <v>1.912321025663687</v>
+        <v>3.010808742430982</v>
       </c>
       <c r="L19">
-        <v>0.4061936258348595</v>
+        <v>0.4161444815105853</v>
       </c>
       <c r="M19">
-        <v>0.4266643470043405</v>
+        <v>0.3938159876193907</v>
       </c>
       <c r="N19">
-        <v>4.507658111881184</v>
+        <v>2.57147217815681</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.631333878612509</v>
+        <v>1.457097929089258</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01080599570085639</v>
+        <v>0.0215043979930698</v>
       </c>
       <c r="E20">
-        <v>0.06258265880614644</v>
+        <v>0.0461605251249928</v>
       </c>
       <c r="F20">
-        <v>4.457448978167093</v>
+        <v>3.134824375195478</v>
       </c>
       <c r="G20">
-        <v>0.002636002380421015</v>
+        <v>0.0008336208273900474</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1554143869881717</v>
+        <v>0.1014808296514715</v>
       </c>
       <c r="K20">
-        <v>1.938949248273218</v>
+        <v>3.131090345648829</v>
       </c>
       <c r="L20">
-        <v>0.4090340510968673</v>
+        <v>0.4313242166334135</v>
       </c>
       <c r="M20">
-        <v>0.4291644927968292</v>
+        <v>0.407181235269988</v>
       </c>
       <c r="N20">
-        <v>4.505268991769086</v>
+        <v>2.568573845680959</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.660790544581062</v>
+        <v>1.612888192998554</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01179706369340749</v>
+        <v>0.02500727373489298</v>
       </c>
       <c r="E21">
-        <v>0.06358403830108728</v>
+        <v>0.04964621142137204</v>
       </c>
       <c r="F21">
-        <v>4.489482444412573</v>
+        <v>3.339176872828261</v>
       </c>
       <c r="G21">
-        <v>0.002630464618432007</v>
+        <v>0.0008238523069968178</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1565012157804091</v>
+        <v>0.1046422250164412</v>
       </c>
       <c r="K21">
-        <v>2.029709241714102</v>
+        <v>3.542694821833493</v>
       </c>
       <c r="L21">
-        <v>0.4188307943401526</v>
+        <v>0.4833736767675276</v>
       </c>
       <c r="M21">
-        <v>0.43781025388882</v>
+        <v>0.4529712980467835</v>
       </c>
       <c r="N21">
-        <v>4.49828669730816</v>
+        <v>2.562366627826847</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.680702075967815</v>
+        <v>1.717137168675521</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01244356539174873</v>
+        <v>0.02742131823116978</v>
       </c>
       <c r="E22">
-        <v>0.06423068822669364</v>
+        <v>0.05198996295873748</v>
       </c>
       <c r="F22">
-        <v>4.511855371969517</v>
+        <v>3.478681356520951</v>
       </c>
       <c r="G22">
-        <v>0.002626981383061884</v>
+        <v>0.0008175419169575025</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1571989465171981</v>
+        <v>0.1067545847145652</v>
       </c>
       <c r="K22">
-        <v>2.089992284371533</v>
+        <v>3.81802343529597</v>
       </c>
       <c r="L22">
-        <v>0.4254224398420519</v>
+        <v>0.5182696691810378</v>
       </c>
       <c r="M22">
-        <v>0.4436436451028882</v>
+        <v>0.4836335482702339</v>
       </c>
       <c r="N22">
-        <v>4.494502948346536</v>
+        <v>2.561135423933962</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.67001461273145</v>
+        <v>1.661258842632549</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0120986122369473</v>
+        <v>0.02612026503693698</v>
       </c>
       <c r="E23">
-        <v>0.06388626384191021</v>
+        <v>0.05073230669663786</v>
       </c>
       <c r="F23">
-        <v>4.499782941312986</v>
+        <v>3.403643806685238</v>
       </c>
       <c r="G23">
-        <v>0.002628828046181442</v>
+        <v>0.0008209038032196915</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1568276960486763</v>
+        <v>0.1056223677991639</v>
       </c>
       <c r="K23">
-        <v>2.057729519423049</v>
+        <v>3.670446017821007</v>
       </c>
       <c r="L23">
-        <v>0.4218870616362977</v>
+        <v>0.4995579771518521</v>
       </c>
       <c r="M23">
-        <v>0.4405135310935648</v>
+        <v>0.4671960218783013</v>
       </c>
       <c r="N23">
-        <v>4.496451018010532</v>
+        <v>2.561520827338441</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.630863582320444</v>
+        <v>1.454589185003272</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01078977340972642</v>
+        <v>0.02144899281674739</v>
       </c>
       <c r="E24">
-        <v>0.06256615777616759</v>
+        <v>0.04610450436514135</v>
       </c>
       <c r="F24">
-        <v>4.456949654621127</v>
+        <v>3.13157684270837</v>
       </c>
       <c r="G24">
-        <v>0.002636095197315075</v>
+        <v>0.0008337818806083126</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1553964090373903</v>
+        <v>0.1014298150752957</v>
       </c>
       <c r="K24">
-        <v>1.937482096401482</v>
+        <v>3.124458738632882</v>
       </c>
       <c r="L24">
-        <v>0.4088771158571376</v>
+        <v>0.4304869121727677</v>
       </c>
       <c r="M24">
-        <v>0.4290262722750313</v>
+        <v>0.4064441358635236</v>
       </c>
       <c r="N24">
-        <v>4.505396262302298</v>
+        <v>2.568720192154217</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.591473714900786</v>
+        <v>1.240599318762634</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.00937129021493277</v>
+        <v>0.01683577900886846</v>
       </c>
       <c r="E25">
-        <v>0.0611077019046764</v>
+        <v>0.0413273905744056</v>
       </c>
       <c r="F25">
-        <v>4.416910097319615</v>
+        <v>2.860236166337671</v>
       </c>
       <c r="G25">
-        <v>0.002644522032556852</v>
+        <v>0.0008480525636303926</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1537976342835314</v>
+        <v>0.09705325637341566</v>
       </c>
       <c r="K25">
-        <v>1.811906617872239</v>
+        <v>2.557986644456719</v>
       </c>
       <c r="L25">
-        <v>0.3956540380251994</v>
+        <v>0.3591452102460977</v>
       </c>
       <c r="M25">
-        <v>0.4174216858865947</v>
+        <v>0.3435952384613898</v>
       </c>
       <c r="N25">
-        <v>4.518386648135746</v>
+        <v>2.58740798668552</v>
       </c>
       <c r="O25">
         <v>0</v>
